--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Progression_PT_Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
+    <sheet name="Progression_PT_Info" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
   <si>
     <t>Semaine</t>
   </si>
@@ -325,7 +326,16 @@
     <t>Présentation projets</t>
   </si>
   <si>
-    <t>Présentation projets ?</t>
+    <t>TD Divers</t>
+  </si>
+  <si>
+    <t>Choix des projets</t>
+  </si>
+  <si>
+    <t>Présentation projets 2</t>
+  </si>
+  <si>
+    <t>Présentation projets 3</t>
   </si>
 </sst>
 </file>
@@ -720,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -830,6 +840,57 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -845,58 +906,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1202,9 +1227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15:D16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1235,6 +1260,592 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="31">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="31">
+        <v>3</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="31">
+        <v>4</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="31">
+        <v>5</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="30">
+        <v>7</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="31">
+        <v>8</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="31">
+        <v>9</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="31">
+        <v>10</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="31">
+        <v>11</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="32">
+        <v>12</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="31">
+        <v>14</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="31">
+        <v>15</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="31">
+        <v>16</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="31">
+        <v>17</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="32">
+        <v>18</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="58"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="35.5703125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
@@ -1252,7 +1863,7 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="55"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="8"/>
       <c r="F3" s="21"/>
     </row>
@@ -1264,7 +1875,7 @@
       <c r="C4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="10"/>
       <c r="F4" s="22"/>
     </row>
@@ -1274,9 +1885,9 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="56"/>
+        <v>76</v>
+      </c>
+      <c r="D5" s="46"/>
       <c r="E5" s="10"/>
       <c r="F5" s="22"/>
     </row>
@@ -1288,7 +1899,7 @@
       <c r="C6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="10"/>
       <c r="F6" s="22"/>
     </row>
@@ -1298,9 +1909,9 @@
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="56"/>
+        <v>53</v>
+      </c>
+      <c r="D7" s="46"/>
       <c r="E7" s="10"/>
       <c r="F7" s="22"/>
     </row>
@@ -1312,7 +1923,7 @@
       <c r="C8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="57" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="27" t="s">
@@ -1326,9 +1937,9 @@
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="D9" s="58"/>
       <c r="E9" s="12"/>
       <c r="F9" s="24"/>
     </row>
@@ -1354,12 +1965,10 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1369,13 +1978,11 @@
       <c r="B14" s="31">
         <v>1</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="C14" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1385,10 +1992,10 @@
       <c r="B15" s="31">
         <v>2</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -1401,10 +2008,8 @@
       <c r="B16" s="31">
         <v>3</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="50"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="10"/>
       <c r="F16" s="22"/>
     </row>
@@ -1416,9 +2021,9 @@
         <v>4</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="64" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -1431,10 +2036,10 @@
       <c r="B18" s="31">
         <v>5</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="54"/>
+      <c r="C18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="63"/>
       <c r="E18" s="27" t="s">
         <v>65</v>
       </c>
@@ -1444,11 +2049,11 @@
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -1474,7 +2079,7 @@
       <c r="C23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="61" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="8"/>
@@ -1490,7 +2095,7 @@
       <c r="C24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="10"/>
       <c r="F24" s="22"/>
     </row>
@@ -1502,9 +2107,9 @@
         <v>9</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="59" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="19" t="s">
@@ -1520,9 +2125,9 @@
         <v>10</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="50"/>
+        <v>78</v>
+      </c>
+      <c r="D26" s="59"/>
       <c r="E26" s="19" t="s">
         <v>72</v>
       </c>
@@ -1538,7 +2143,7 @@
       <c r="C27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="59" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -1553,10 +2158,10 @@
       <c r="B28" s="32">
         <v>12</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="12"/>
       <c r="F28" s="24"/>
     </row>
@@ -1578,13 +2183,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -1596,7 +2201,7 @@
       <c r="C33" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="10"/>
       <c r="F33" s="22"/>
     </row>
@@ -1610,7 +2215,7 @@
       <c r="C34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="59" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
@@ -1626,7 +2231,7 @@
       <c r="C35" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="10"/>
       <c r="F35" s="22"/>
     </row>
@@ -1637,10 +2242,8 @@
       <c r="B36" s="31">
         <v>17</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="59" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
@@ -1653,10 +2256,8 @@
       <c r="B37" s="32">
         <v>18</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="51"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="12"/>
       <c r="F37" s="24"/>
     </row>
@@ -1678,7 +2279,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -1690,7 +2291,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -1700,7 +2301,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -1710,7 +2311,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -1722,7 +2323,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -1732,7 +2333,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -1742,7 +2343,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -1752,7 +2353,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -1762,7 +2363,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -1772,7 +2373,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="41"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -1798,7 +2399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1810,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
@@ -906,13 +906,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,11 +1225,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1805,7 +1808,7 @@
     <mergeCell ref="B44:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1813,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2079,7 +2082,7 @@
       <c r="C23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="59" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="8"/>
@@ -2095,7 +2098,7 @@
       <c r="C24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="10"/>
       <c r="F24" s="22"/>
     </row>
@@ -2109,7 +2112,7 @@
       <c r="C25" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="60" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="19" t="s">
@@ -2127,7 +2130,7 @@
       <c r="C26" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="19" t="s">
         <v>72</v>
       </c>
@@ -2143,7 +2146,7 @@
       <c r="C27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="60" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -2161,7 +2164,7 @@
       <c r="C28" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="60"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="12"/>
       <c r="F28" s="24"/>
     </row>
@@ -2215,7 +2218,7 @@
       <c r="C34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="60" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
@@ -2231,7 +2234,7 @@
       <c r="C35" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="10"/>
       <c r="F35" s="22"/>
     </row>
@@ -2243,7 +2246,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="60" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
@@ -2257,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="37"/>
-      <c r="D37" s="60"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="12"/>
       <c r="F37" s="24"/>
     </row>
@@ -2381,6 +2384,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -2388,11 +2396,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -2,22 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
-    <sheet name="Progression_PT_Info" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
+    <sheet name="Progression_PT_Star_Distr" sheetId="6" r:id="rId2"/>
+    <sheet name="Progression_PT_Info" sheetId="1" r:id="rId3"/>
+    <sheet name="Progression_PT_Info_distrib" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="91">
   <si>
     <t>Semaine</t>
   </si>
@@ -336,6 +338,249 @@
   </si>
   <si>
     <t>Présentation projets 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analyser, Modéliser et Programmer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> un algorithme récursif en tenant compte de l'utilisation de la mémoire et en comprenant les avantages et inconvénients par rapport à une méthode itérative. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Imaginer et concevoir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> une solution algorithmique.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analyser et documente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">r des algroithmes de tris.
+Distinguer par leur complexité les algorithmes de tri. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Communiquer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à l'oral en présentatant une problématique informatique et sa solution.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modéliser et résoudre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> des problèmes scientifiques en utilisant l'informatique.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S'initier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (rappel) au fonctionnement d'une base de données. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consulter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> une base de données.</t>
+    </r>
+  </si>
+  <si>
+    <t>Révisions algorithmique / Bilan projets</t>
+  </si>
+  <si>
+    <t>25/04/2016
+au
+15/05/2015</t>
+  </si>
+  <si>
+    <t>16/05/2016 au 26/06/2016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Analyser, Modéliser et Programmer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">un algorithme récursif en tenant compte de l'utilisation de la mémoire et en comprenant les avantages et inconvénients par rapport à une méthode itérative. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analyser et documenter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> des algroithmes de tris.
+Distinguer par leur complexité les algorithmes de tri. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analyser et documenter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> une structure de données : les piles.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -730,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -774,9 +1019,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,9 +1049,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,9 +1058,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -882,6 +1118,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -891,6 +1130,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,23 +1211,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,14 +1554,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1266,546 +1595,541 @@
     <row r="2" spans="1:6" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="45"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="21"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="46"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="43"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="82" t="s">
+        <v>90</v>
+      </c>
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="46" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31">
-        <v>1</v>
-      </c>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="31">
-        <v>2</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="31">
-        <v>3</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="31">
-        <v>4</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="31">
-        <v>5</v>
-      </c>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="30">
-        <v>7</v>
-      </c>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="31">
-        <v>8</v>
-      </c>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="31">
-        <v>9</v>
-      </c>
-      <c r="C25" s="42" t="s">
+      <c r="B25" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="31">
-        <v>10</v>
-      </c>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="42" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="31">
-        <v>11</v>
-      </c>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="42" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="32">
-        <v>12</v>
-      </c>
-      <c r="C28" s="43" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="45" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="24"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="31">
-        <v>14</v>
-      </c>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="31">
-        <v>15</v>
-      </c>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="31">
-        <v>16</v>
-      </c>
-      <c r="C35" s="42" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="31">
-        <v>17</v>
-      </c>
-      <c r="C36" s="42" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="32">
-        <v>18</v>
-      </c>
-      <c r="C37" s="43" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="45" t="s">
         <v>71</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="24"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="74" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="22"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="77" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="22"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="22"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="55"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="22"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="22"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="55"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="22"/>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="55"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="22"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="24"/>
+      <c r="F50" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
@@ -1814,18 +2138,501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="3" customWidth="1"/>
-    <col min="3" max="6" width="35.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="25.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="12" width="25.7109375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="21"/>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="21"/>
+      <c r="H5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="43"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="44"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="21"/>
+      <c r="H7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="23"/>
+      <c r="H9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="H11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="21"/>
+      <c r="H14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="75"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="21"/>
+      <c r="H15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="21"/>
+      <c r="H17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="75"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="H18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="H19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="75"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="75"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="H21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="78"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="31.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -1852,112 +2659,116 @@
     <row r="2" spans="1:6" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="45"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1968,442 +2779,1175 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="82" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31">
-        <v>1</v>
-      </c>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="31">
-        <v>2</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="79" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="31">
-        <v>3</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="31">
-        <v>4</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="79" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="31">
-        <v>5</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="80"/>
+      <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="30">
-        <v>7</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="87" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="31">
-        <v>8</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="31">
-        <v>9</v>
-      </c>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="31">
-        <v>10</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="83"/>
+      <c r="E26" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="31">
-        <v>11</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="32">
-        <v>12</v>
-      </c>
-      <c r="C28" s="37" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="61"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="24"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="31">
-        <v>14</v>
-      </c>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="31">
-        <v>15</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="60" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="83" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="31">
-        <v>16</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="60"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="83"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="31">
-        <v>17</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="60" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="83" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="32">
-        <v>18</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="61"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="24"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="74" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="22"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="77" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="22"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="22"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="55"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="22"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="22"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="55"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="22"/>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="55"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="22"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="24"/>
+      <c r="F50" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
+  <mergeCells count="18">
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="27" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil5">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="31.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="12" width="31.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="20"/>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="21"/>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="21"/>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="21"/>
+      <c r="H7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="H8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="89"/>
+      <c r="J8" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="23"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="91"/>
+    </row>
+    <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="21"/>
+      <c r="H14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="21"/>
+      <c r="H15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="21"/>
+      <c r="H17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="H19" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="91"/>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="H21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="67"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="58"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="58"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="58"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="58"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="58"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="58"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="58"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="58"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+    </row>
+    <row r="42" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="58"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="58"/>
+    </row>
+    <row r="43" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="58"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="58"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+    </row>
+    <row r="45" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="58"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+    </row>
+    <row r="46" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="58"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+    </row>
+    <row r="47" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="58"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+    </row>
+    <row r="48" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="58"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+    </row>
+    <row r="49" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="58"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+    </row>
+    <row r="50" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="58"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="27" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2414,8 +3958,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="94">
   <si>
     <t>Semaine</t>
   </si>
@@ -581,6 +581,19 @@
       </rPr>
       <t xml:space="preserve"> une structure de données : les piles.</t>
     </r>
+  </si>
+  <si>
+    <t>15/05/2016
+au
+30/06/2016</t>
+  </si>
+  <si>
+    <t>25/04/2016
+au
+15/05/2016</t>
+  </si>
+  <si>
+    <t>Préparation aux oraux</t>
   </si>
 </sst>
 </file>
@@ -975,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1187,6 +1200,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,6 +1248,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,12 +1263,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1250,8 +1278,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,8 +1588,8 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1644,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="83" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1630,7 +1658,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -1642,7 +1670,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1656,7 +1684,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1668,7 +1696,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="83" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1684,7 +1712,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -1710,7 +1738,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="86" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1726,7 +1754,7 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -1740,7 +1768,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -1754,7 +1782,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -1766,7 +1794,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="83" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1782,7 +1810,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="39" t="s">
         <v>59</v>
       </c>
@@ -1822,7 +1850,7 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="86" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -1836,7 +1864,7 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="39" t="s">
         <v>60</v>
       </c>
@@ -1850,7 +1878,7 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -1868,7 +1896,7 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="39" t="s">
         <v>74</v>
       </c>
@@ -1882,7 +1910,7 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="83" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -1898,7 +1926,7 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="81"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="40" t="s">
         <v>61</v>
       </c>
@@ -1926,13 +1954,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -2016,7 +2044,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="78" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -2028,7 +2056,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="75"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -2038,7 +2066,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="76"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -2048,7 +2076,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="81" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -2060,7 +2088,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="75"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -2070,7 +2098,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="75"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -2080,7 +2108,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="75"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -2090,7 +2118,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="75"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2100,7 +2128,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="75"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -2110,7 +2138,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="78"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2141,11 +2169,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2209,10 +2237,10 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="97" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2230,7 +2258,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="83" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2240,21 +2268,23 @@
       <c r="E4" s="10"/>
       <c r="F4" s="21"/>
       <c r="H4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -2262,13 +2292,15 @@
       <c r="E5" s="10"/>
       <c r="F5" s="21"/>
       <c r="H5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="43"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="84"/>
+      <c r="J5" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="21"/>
     </row>
@@ -2276,7 +2308,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2286,21 +2318,27 @@
       <c r="E6" s="10"/>
       <c r="F6" s="21"/>
       <c r="H6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>72</v>
+      </c>
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -2308,21 +2346,23 @@
       <c r="E7" s="10"/>
       <c r="F7" s="21"/>
       <c r="H7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="I7" s="84"/>
+      <c r="J7" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="71" t="s">
+        <v>72</v>
+      </c>
       <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="83" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2334,38 +2374,40 @@
       </c>
       <c r="F8" s="21"/>
       <c r="H8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="I8" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="71" t="s">
+        <v>65</v>
+      </c>
       <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
-      <c r="H9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="69" t="s">
-        <v>64</v>
+      <c r="H9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="85"/>
+      <c r="J9" s="72" t="s">
+        <v>61</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="23"/>
@@ -2386,25 +2428,22 @@
       <c r="E11" s="32"/>
       <c r="F11" s="33"/>
       <c r="H11" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>46</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="33"/>
     </row>
-    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="86" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -2416,21 +2455,21 @@
       <c r="E13" s="8"/>
       <c r="F13" s="20"/>
       <c r="H13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77"/>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -2440,19 +2479,21 @@
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
       <c r="H14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="43"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="26"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2462,11 +2503,13 @@
       <c r="E15" s="10"/>
       <c r="F15" s="21"/>
       <c r="H15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="44"/>
       <c r="L15" s="10"/>
       <c r="M15" s="21"/>
     </row>
@@ -2474,7 +2517,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2482,13 +2525,13 @@
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
       <c r="H16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="19"/>
       <c r="L16" s="10"/>
       <c r="M16" s="21"/>
     </row>
@@ -2496,7 +2539,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="83" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2508,19 +2551,23 @@
       <c r="E17" s="10"/>
       <c r="F17" s="21"/>
       <c r="H17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="68" t="s">
         <v>59</v>
       </c>
@@ -2531,14 +2578,18 @@
         <v>65</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="H18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="21"/>
+      <c r="H18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -2549,24 +2600,20 @@
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
-      <c r="H19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="21"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="21"/>
+      <c r="H20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
@@ -2579,36 +2626,53 @@
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
-      <c r="H21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="78"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="23"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="67"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H24" s="58"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I22"/>
+  <mergeCells count="10">
+    <mergeCell ref="I13:M13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
@@ -2623,7 +2687,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
@@ -2719,7 +2783,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="83" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -2733,11 +2797,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="81" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -2753,7 +2817,7 @@
       <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="78"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
     </row>
@@ -2779,7 +2843,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="86" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -2789,13 +2853,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="90" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
     </row>
@@ -2803,11 +2867,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="86"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="83" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -2819,7 +2883,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="80"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
     </row>
@@ -2827,13 +2891,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="83" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -2843,11 +2907,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -2881,7 +2945,7 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="86" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -2897,11 +2961,11 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="10"/>
       <c r="F24" s="21"/>
     </row>
@@ -2909,13 +2973,13 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="88" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="18" t="s">
@@ -2927,11 +2991,11 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="18" t="s">
         <v>72</v>
       </c>
@@ -2941,13 +3005,13 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="83" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="88" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="18" t="s">
@@ -2959,11 +3023,11 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="81"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="84"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="12"/>
       <c r="F28" s="23"/>
     </row>
@@ -2985,13 +3049,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -3013,7 +3077,7 @@
       <c r="C34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="88" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
@@ -3027,7 +3091,7 @@
       <c r="C35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="83"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="10"/>
       <c r="F35" s="21"/>
     </row>
@@ -3037,7 +3101,7 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="88" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
@@ -3049,7 +3113,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="84"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="12"/>
       <c r="F37" s="23"/>
     </row>
@@ -3071,7 +3135,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="78" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -3083,7 +3147,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="75"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3093,7 +3157,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="76"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3103,7 +3167,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="81" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -3115,7 +3179,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="75"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3125,7 +3189,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="75"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3135,7 +3199,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="75"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3145,7 +3209,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="75"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3155,7 +3219,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="75"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3165,7 +3229,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="78"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -3173,24 +3237,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3264,7 +3328,7 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="78" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="54" t="s">
@@ -3292,7 +3356,7 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="76"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="52" t="s">
         <v>60</v>
       </c>
@@ -3314,7 +3378,7 @@
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="81" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="52" t="s">
@@ -3342,7 +3406,7 @@
       <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="52" t="s">
         <v>78</v>
       </c>
@@ -3356,7 +3420,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="83" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -3368,7 +3432,7 @@
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="92" t="s">
         <v>84</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -3386,11 +3450,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="81" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -3400,7 +3464,7 @@
       <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="89"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="53" t="s">
         <v>61</v>
       </c>
@@ -3416,7 +3480,7 @@
       <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="78"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
       <c r="H9" s="3"/>
@@ -3426,13 +3490,13 @@
       <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="91"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="96"/>
     </row>
     <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -3468,7 +3532,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="86" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -3488,13 +3552,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="92" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
       <c r="H14" s="9" t="s">
@@ -3514,11 +3578,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="83" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -3540,7 +3604,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="80"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
       <c r="H16" s="9" t="s">
@@ -3558,13 +3622,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="83" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="83" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -3582,11 +3646,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -3606,13 +3670,13 @@
       <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="90" t="s">
+      <c r="I19" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="91"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="96"/>
     </row>
     <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
@@ -3926,6 +3990,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -3933,11 +4002,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
@@ -1212,6 +1212,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,38 +1251,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,9 +1587,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:F30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1644,7 +1644,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="84" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1658,7 +1658,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="84" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1684,7 +1684,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="84" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1712,7 +1712,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1754,7 +1754,7 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="84" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -1782,7 +1782,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1810,7 +1810,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="39" t="s">
         <v>59</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="87" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -1864,7 +1864,7 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="39" t="s">
         <v>60</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="84" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -1896,7 +1896,7 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="39" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="84" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -1926,7 +1926,7 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="40" t="s">
         <v>61</v>
       </c>
@@ -1954,13 +1954,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -2044,7 +2044,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -2056,7 +2056,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="79"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -2066,7 +2066,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -2076,7 +2076,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="82" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -2088,7 +2088,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="79"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -2098,7 +2098,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="79"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -2108,7 +2108,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="79"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -2118,7 +2118,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="79"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2128,7 +2128,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="79"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -2138,7 +2138,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="82"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2171,7 +2171,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
@@ -2237,10 +2237,10 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="75" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="84" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2270,7 +2270,7 @@
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="87" t="s">
         <v>83</v>
       </c>
       <c r="J4" s="73" t="s">
@@ -2284,7 +2284,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="84"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="71" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="84" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2320,7 +2320,7 @@
       <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="84" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="71" t="s">
@@ -2338,7 +2338,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="84"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="71" t="s">
         <v>74</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="84" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2376,7 +2376,7 @@
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="84" t="s">
         <v>84</v>
       </c>
       <c r="J8" s="71" t="s">
@@ -2392,7 +2392,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="85"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="72" t="s">
         <v>61</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -2457,19 +2457,19 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="84" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2517,7 +2517,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2567,7 +2567,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="68" t="s">
         <v>59</v>
       </c>
@@ -2663,16 +2663,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
@@ -2783,7 +2783,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="84" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -2797,11 +2797,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -2817,7 +2817,7 @@
       <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
     </row>
@@ -2843,7 +2843,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="87" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -2859,7 +2859,7 @@
       <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
     </row>
@@ -2871,7 +2871,7 @@
       <c r="C15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="84" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="84"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
     </row>
@@ -2891,13 +2891,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="84" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -2907,11 +2907,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -2945,13 +2945,13 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="87" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="92" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="8"/>
@@ -2961,7 +2961,7 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="84" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -2991,7 +2991,7 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="84"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="84" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -3023,7 +3023,7 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
@@ -3049,13 +3049,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -3135,7 +3135,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -3147,7 +3147,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="79"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3157,7 +3157,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3167,7 +3167,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="82" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -3179,7 +3179,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="79"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3189,7 +3189,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="79"/>
+      <c r="B46" s="80"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3199,7 +3199,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="79"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3209,7 +3209,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="79"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3219,7 +3219,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="79"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3229,7 +3229,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="82"/>
+      <c r="B50" s="83"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -3237,17 +3237,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -3255,6 +3244,17 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3328,7 +3328,7 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="79" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="54" t="s">
@@ -3356,7 +3356,7 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="52" t="s">
         <v>60</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="82" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="52" t="s">
@@ -3406,7 +3406,7 @@
       <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="80"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="52" t="s">
         <v>78</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="84" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -3432,7 +3432,7 @@
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="93" t="s">
         <v>84</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -3450,11 +3450,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -3480,7 +3480,7 @@
       <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
       <c r="H9" s="3"/>
@@ -3532,7 +3532,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="87" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -3552,13 +3552,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="93" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
       <c r="H14" s="9" t="s">
@@ -3578,11 +3578,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="93"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="84" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="84"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
       <c r="H16" s="9" t="s">
@@ -3622,13 +3622,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="84" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -3646,11 +3646,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -3990,11 +3990,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -4002,6 +3997,11 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
@@ -988,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1215,6 +1215,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1251,6 +1254,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1263,12 +1269,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1278,8 +1284,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,7 +1593,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
@@ -1644,7 +1650,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1658,7 +1664,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="85"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -1670,7 +1676,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1684,7 +1690,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1696,7 +1702,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="85" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1712,7 +1718,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -1738,7 +1744,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="88" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1754,7 +1760,7 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -1768,7 +1774,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -1782,7 +1788,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -1794,7 +1800,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="85" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1810,7 +1816,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="39" t="s">
         <v>59</v>
       </c>
@@ -1850,7 +1856,7 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -1864,7 +1870,7 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="85"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="39" t="s">
         <v>60</v>
       </c>
@@ -1878,7 +1884,7 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -1896,7 +1902,7 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="39" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +1916,7 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="85" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -1926,7 +1932,7 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="86"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="40" t="s">
         <v>61</v>
       </c>
@@ -1954,13 +1960,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -2044,7 +2050,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="80" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -2056,7 +2062,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -2066,7 +2072,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="81"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -2076,7 +2082,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="83" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -2088,7 +2094,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="80"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -2098,7 +2104,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="80"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -2108,7 +2114,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="80"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -2118,7 +2124,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2128,7 +2134,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="80"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -2138,7 +2144,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="83"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2258,7 +2264,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2270,7 +2276,7 @@
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="88" t="s">
         <v>83</v>
       </c>
       <c r="J4" s="73" t="s">
@@ -2284,7 +2290,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="85"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -2294,7 +2300,7 @@
       <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="85"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="71" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2314,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2320,7 +2326,7 @@
       <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="85" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="71" t="s">
@@ -2338,7 +2344,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -2348,7 +2354,7 @@
       <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="85"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="71" t="s">
         <v>74</v>
       </c>
@@ -2362,7 +2368,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="85" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2376,7 +2382,7 @@
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="85" t="s">
         <v>84</v>
       </c>
       <c r="J8" s="71" t="s">
@@ -2392,7 +2398,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -2402,7 +2408,7 @@
       <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="72" t="s">
         <v>61</v>
       </c>
@@ -2443,7 +2449,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="88" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -2457,19 +2463,19 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -2493,7 +2499,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2517,7 +2523,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="85"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2539,7 +2545,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="85" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2567,7 +2573,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="68" t="s">
         <v>59</v>
       </c>
@@ -2686,9 +2692,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27:B28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2783,12 +2789,10 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="C7" s="99"/>
       <c r="D7" s="43"/>
       <c r="E7" s="10"/>
       <c r="F7" s="21"/>
@@ -2797,11 +2801,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="83" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -2815,9 +2819,9 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="83"/>
+        <v>53</v>
+      </c>
+      <c r="D9" s="84"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
     </row>
@@ -2843,7 +2847,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="88" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -2853,13 +2857,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="92" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="85"/>
+        <v>58</v>
+      </c>
+      <c r="D14" s="86"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
     </row>
@@ -2867,11 +2871,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -2882,8 +2886,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="28"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="85"/>
+      <c r="C16" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="86"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
     </row>
@@ -2891,13 +2897,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="85" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -2907,11 +2913,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -2945,13 +2951,13 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="88" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="89" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="8"/>
@@ -2961,11 +2967,11 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="85"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="88"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="10"/>
       <c r="F24" s="21"/>
     </row>
@@ -2973,13 +2979,13 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="90" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="18" t="s">
@@ -2991,11 +2997,11 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="18" t="s">
         <v>72</v>
       </c>
@@ -3005,13 +3011,13 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="85" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="90" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="18" t="s">
@@ -3023,11 +3029,11 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="86"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="89"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="12"/>
       <c r="F28" s="23"/>
     </row>
@@ -3049,13 +3055,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -3077,7 +3083,7 @@
       <c r="C34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="90" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
@@ -3091,7 +3097,7 @@
       <c r="C35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="88"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="10"/>
       <c r="F35" s="21"/>
     </row>
@@ -3101,7 +3107,7 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="90" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
@@ -3113,7 +3119,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="89"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="12"/>
       <c r="F37" s="23"/>
     </row>
@@ -3135,7 +3141,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="80" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -3147,7 +3153,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3157,7 +3163,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="81"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3167,7 +3173,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="83" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -3179,7 +3185,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="80"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3189,7 +3195,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="80"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3199,7 +3205,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="80"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3209,7 +3215,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3219,7 +3225,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="80"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3229,7 +3235,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="83"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -3237,6 +3243,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -3244,17 +3261,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3270,8 +3276,8 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B8"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3328,7 +3334,7 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="80" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="54" t="s">
@@ -3356,7 +3362,7 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="81"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="52" t="s">
         <v>60</v>
       </c>
@@ -3378,7 +3384,7 @@
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="83" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="52" t="s">
@@ -3406,7 +3412,7 @@
       <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="81"/>
+      <c r="I6" s="82"/>
       <c r="J6" s="52" t="s">
         <v>78</v>
       </c>
@@ -3420,7 +3426,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="85" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -3432,7 +3438,7 @@
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="94" t="s">
         <v>84</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -3450,11 +3456,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="83" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -3464,7 +3470,7 @@
       <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="94"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="53" t="s">
         <v>61</v>
       </c>
@@ -3480,7 +3486,7 @@
       <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
       <c r="H9" s="3"/>
@@ -3490,13 +3496,13 @@
       <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="98"/>
     </row>
     <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -3532,7 +3538,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="88" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -3552,13 +3558,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="94" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
       <c r="H14" s="9" t="s">
@@ -3578,11 +3584,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -3604,7 +3610,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
       <c r="H16" s="9" t="s">
@@ -3622,13 +3628,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="85" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="85" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -3646,11 +3652,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -3670,13 +3676,13 @@
       <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="95" t="s">
+      <c r="I19" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="96"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="98"/>
     </row>
     <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
@@ -3990,6 +3996,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -3997,11 +4008,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
@@ -1218,6 +1218,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1254,38 +1257,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,9 +1593,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1650,7 +1650,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1664,7 +1664,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1690,7 +1690,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="86" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1718,7 +1718,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="89" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1760,7 +1760,7 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="86" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -1788,7 +1788,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="86"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="86" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1816,7 +1816,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="39" t="s">
         <v>59</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="89" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -1870,7 +1870,7 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="39" t="s">
         <v>60</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="86" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -1902,7 +1902,7 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="86"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="39" t="s">
         <v>74</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="86" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -1932,7 +1932,7 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="87"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="40" t="s">
         <v>61</v>
       </c>
@@ -1960,13 +1960,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="80"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -2050,7 +2050,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="81" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -2062,7 +2062,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="81"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -2072,7 +2072,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="82"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -2082,7 +2082,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="84" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -2094,7 +2094,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="81"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -2104,7 +2104,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="81"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -2114,7 +2114,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="81"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -2124,7 +2124,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="81"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2134,7 +2134,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="81"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -2144,7 +2144,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="84"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2264,7 +2264,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2276,7 +2276,7 @@
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="89" t="s">
         <v>83</v>
       </c>
       <c r="J4" s="73" t="s">
@@ -2290,7 +2290,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="86"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="71" t="s">
         <v>60</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2326,7 +2326,7 @@
       <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="86" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="71" t="s">
@@ -2344,7 +2344,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="71" t="s">
         <v>74</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="86" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2382,7 +2382,7 @@
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="86" t="s">
         <v>84</v>
       </c>
       <c r="J8" s="71" t="s">
@@ -2398,7 +2398,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="72" t="s">
         <v>61</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="89" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -2463,19 +2463,19 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="86" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2523,7 +2523,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="86"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="86" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2573,7 +2573,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="68" t="s">
         <v>59</v>
       </c>
@@ -2692,9 +2692,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2789,10 +2789,10 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="99"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="43"/>
       <c r="E7" s="10"/>
       <c r="F7" s="21"/>
@@ -2801,11 +2801,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -2821,7 +2821,7 @@
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
     </row>
@@ -2847,7 +2847,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="89" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -2863,7 +2863,7 @@
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
     </row>
@@ -2875,7 +2875,7 @@
       <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -2889,7 +2889,7 @@
       <c r="C16" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
     </row>
@@ -2897,13 +2897,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="86" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="86" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -2913,11 +2913,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -2951,13 +2951,13 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="89" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="94" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="8"/>
@@ -2967,7 +2967,7 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="86" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -2997,7 +2997,7 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="86"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="86" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -3029,7 +3029,7 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="87"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
@@ -3055,13 +3055,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="80"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -3141,7 +3141,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="81" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -3153,7 +3153,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="81"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3163,7 +3163,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="82"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3173,7 +3173,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="84" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -3185,7 +3185,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="81"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3195,7 +3195,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="81"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3205,7 +3205,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="81"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3215,7 +3215,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="81"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3225,7 +3225,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="81"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3235,7 +3235,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="84"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -3243,17 +3243,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -3261,6 +3250,17 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3334,7 +3334,7 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="81" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="54" t="s">
@@ -3362,7 +3362,7 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="52" t="s">
         <v>60</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="84" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="52" t="s">
@@ -3412,7 +3412,7 @@
       <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="82"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="52" t="s">
         <v>78</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="86" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -3438,7 +3438,7 @@
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="95" t="s">
         <v>84</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -3456,11 +3456,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -3486,7 +3486,7 @@
       <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
       <c r="H9" s="3"/>
@@ -3538,7 +3538,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="89" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -3558,13 +3558,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="95" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
       <c r="H14" s="9" t="s">
@@ -3584,11 +3584,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="95"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="86"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
       <c r="H16" s="9" t="s">
@@ -3628,13 +3628,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="86" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="86" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -3652,11 +3652,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -3996,11 +3996,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -4008,6 +4003,11 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="96">
   <si>
     <t>Semaine</t>
   </si>
@@ -594,6 +594,13 @@
   </si>
   <si>
     <t>Préparation aux oraux</t>
+  </si>
+  <si>
+    <t>TD Tri</t>
+  </si>
+  <si>
+    <t>TD Filtrage numérique
+Accéléropmètre</t>
   </si>
 </sst>
 </file>
@@ -1257,6 +1264,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1269,12 +1279,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1283,9 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,9 +1600,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2692,9 +2699,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17:D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2857,7 +2864,7 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="93" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -2871,7 +2878,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="93"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
@@ -2957,8 +2964,8 @@
       <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="94" t="s">
-        <v>69</v>
+      <c r="D23" s="90" t="s">
+        <v>94</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="20"/>
@@ -2971,7 +2978,7 @@
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="90"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="10"/>
       <c r="F24" s="21"/>
     </row>
@@ -2985,8 +2992,8 @@
       <c r="C25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="90" t="s">
-        <v>69</v>
+      <c r="D25" s="91" t="s">
+        <v>95</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>72</v>
@@ -3001,7 +3008,7 @@
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="90"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="18" t="s">
         <v>72</v>
       </c>
@@ -3017,7 +3024,7 @@
       <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="91" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="18" t="s">
@@ -3033,7 +3040,7 @@
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="91"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="12"/>
       <c r="F28" s="23"/>
     </row>
@@ -3083,7 +3090,7 @@
       <c r="C34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="91" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
@@ -3097,7 +3104,7 @@
       <c r="C35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="90"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="10"/>
       <c r="F35" s="21"/>
     </row>
@@ -3107,7 +3114,7 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="91" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
@@ -3119,7 +3126,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="91"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="12"/>
       <c r="F37" s="23"/>
     </row>
@@ -3243,6 +3250,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -3250,17 +3268,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3470,7 +3477,7 @@
       <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="96"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="53" t="s">
         <v>61</v>
       </c>
@@ -3496,13 +3503,13 @@
       <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -3584,7 +3591,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="99"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
@@ -3676,13 +3683,13 @@
       <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="99"/>
     </row>
     <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
@@ -3996,6 +4003,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -4003,11 +4015,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="118">
   <si>
     <t>Semaine</t>
   </si>
@@ -601,6 +601,82 @@
   <si>
     <t>TD Filtrage numérique
 Accéléropmètre</t>
+  </si>
+  <si>
+    <t>Révisions - Sujet Informatique Mines Ponts 2015</t>
+  </si>
+  <si>
+    <t>Correction CB
+Révisions - Sujet Informatique Mines Ponts 2015</t>
+  </si>
+  <si>
+    <t>DS 1h
+Modélisation de l'éoulement dans un sablier</t>
+  </si>
+  <si>
+    <t>TD d'applications tris : comparaison et modifications des tris au programme.</t>
+  </si>
+  <si>
+    <t>TD Tri : 
+Tour de France, Tri des coureurs à l'arricée d'étape.</t>
+  </si>
+  <si>
+    <t>Tris - TD tri à bulles, tri shaker</t>
+  </si>
+  <si>
+    <t>Tris - Cours</t>
+  </si>
+  <si>
+    <t>TD d'applications récursivité : 
+Parenthèse inattendue, Fibonacci</t>
+  </si>
+  <si>
+    <t>Piles - TD : Parenthèse inattendue, implémentation et gestion des files et des piles.</t>
+  </si>
+  <si>
+    <t>TD d'applications piles - Construction d'une pile
+Notation polonaise inversée</t>
+  </si>
+  <si>
+    <t>Révision calcul numérique - Dichotomie et Newton</t>
+  </si>
+  <si>
+    <t>Révision calcul numérique - Intégtation</t>
+  </si>
+  <si>
+    <t>Révision calcul numérique : Résolution d'équation différentielle - Ordre 1</t>
+  </si>
+  <si>
+    <t>Révision calcul numérique : Résolution d'équation différentielle - Ordre 2</t>
+  </si>
+  <si>
+    <t>Exercices Equa diff</t>
+  </si>
+  <si>
+    <t>Révision BDD
+Application : aéroports et station météo</t>
+  </si>
+  <si>
+    <t>DS 1h
+Problème des moidres carrés. Détermination d'un défaut de planéité et d'une référence spécifiée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS 1h
+Recherche de l'enveloppe convexe d'un nuage de points </t>
+  </si>
+  <si>
+    <t>CONCOURS BLANC - Epreuve d'apres le sujet CCP PC - 2015</t>
+  </si>
+  <si>
+    <t>Révisions algorithmique
+Sujet Mines Ponts 2015</t>
+  </si>
+  <si>
+    <t>Révision algorithmique</t>
+  </si>
+  <si>
+    <t>TD sur feuille 
+Banque PT 2016</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1228,6 +1304,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,35 +1343,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,9 +1679,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1657,7 +1736,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="87" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1671,7 +1750,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -1683,7 +1762,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="87" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1697,7 +1776,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1705,11 +1784,11 @@
       <c r="E7" s="10"/>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="87" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1717,7 +1796,7 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="25" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -1725,7 +1804,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -1751,14 +1830,14 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="90" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="20"/>
@@ -1767,12 +1846,12 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="44" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
@@ -1781,7 +1860,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="87" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -1795,7 +1874,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -1807,14 +1886,14 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="21"/>
@@ -1823,15 +1902,15 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="39" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -1863,11 +1942,11 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="8"/>
@@ -1877,9 +1956,9 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="39" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>69</v>
@@ -1891,47 +1970,43 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="87" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>72</v>
-      </c>
+      <c r="E25" s="39"/>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="87"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="39" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D26" s="47"/>
-      <c r="E26" s="39" t="s">
-        <v>72</v>
-      </c>
+      <c r="E26" s="39"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="87" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="39" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -1939,9 +2014,9 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="40" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>75</v>
@@ -1967,13 +2042,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
+      <c r="B32" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -1993,7 +2068,7 @@
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="39" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="10"/>
@@ -2004,8 +2079,8 @@
         <v>25</v>
       </c>
       <c r="B35" s="28"/>
-      <c r="C35" s="39" t="s">
-        <v>63</v>
+      <c r="C35" s="78" t="s">
+        <v>115</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="10"/>
@@ -2017,10 +2092,10 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="39" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="21"/>
@@ -2030,9 +2105,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="29"/>
-      <c r="C37" s="40" t="s">
-        <v>64</v>
-      </c>
+      <c r="C37" s="40"/>
       <c r="D37" s="45" t="s">
         <v>71</v>
       </c>
@@ -2057,7 +2130,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="82" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -2069,7 +2142,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="82"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -2079,7 +2152,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="83"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -2089,7 +2162,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -2101,7 +2174,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="82"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -2111,7 +2184,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="82"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -2121,7 +2194,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="82"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -2131,7 +2204,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2141,7 +2214,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="82"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -2151,7 +2224,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="85"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2271,7 +2344,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="87" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2283,7 +2356,7 @@
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="90" t="s">
         <v>83</v>
       </c>
       <c r="J4" s="73" t="s">
@@ -2297,7 +2370,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -2307,7 +2380,7 @@
       <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="87"/>
+      <c r="I5" s="88"/>
       <c r="J5" s="71" t="s">
         <v>60</v>
       </c>
@@ -2321,7 +2394,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="87" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2333,7 +2406,7 @@
       <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="87" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="71" t="s">
@@ -2351,7 +2424,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -2361,7 +2434,7 @@
       <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="87"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="71" t="s">
         <v>74</v>
       </c>
@@ -2375,7 +2448,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="87" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2389,7 +2462,7 @@
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="87" t="s">
         <v>84</v>
       </c>
       <c r="J8" s="71" t="s">
@@ -2405,7 +2478,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -2415,7 +2488,7 @@
       <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="88"/>
+      <c r="I9" s="89"/>
       <c r="J9" s="72" t="s">
         <v>61</v>
       </c>
@@ -2456,7 +2529,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="90" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -2470,19 +2543,19 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -2506,7 +2579,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="87" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2530,7 +2603,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2552,7 +2625,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2580,7 +2653,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="68" t="s">
         <v>59</v>
       </c>
@@ -2699,9 +2772,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27:D28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2796,7 +2869,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="87" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="77"/>
@@ -2808,11 +2881,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="85" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -2828,7 +2901,7 @@
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
     </row>
@@ -2854,7 +2927,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="90" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -2870,7 +2943,7 @@
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
     </row>
@@ -2882,7 +2955,7 @@
       <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="87" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -2896,7 +2969,7 @@
       <c r="C16" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
     </row>
@@ -2904,13 +2977,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="87" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -2920,11 +2993,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -2958,13 +3031,13 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="95" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="8"/>
@@ -2974,7 +3047,7 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
@@ -2986,7 +3059,7 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="87" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -3004,7 +3077,7 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="87"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
@@ -3018,7 +3091,7 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="87" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -3036,7 +3109,7 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
@@ -3062,13 +3135,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -3076,7 +3149,7 @@
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="18" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="10"/>
@@ -3088,7 +3161,7 @@
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D34" s="91" t="s">
         <v>71</v>
@@ -3148,7 +3221,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="82" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -3160,7 +3233,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="82"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3170,7 +3243,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="83"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3180,7 +3253,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -3192,7 +3265,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="82"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3202,7 +3275,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="82"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3212,7 +3285,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="82"/>
+      <c r="B47" s="83"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3222,7 +3295,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="82"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3232,7 +3305,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="82"/>
+      <c r="B49" s="83"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3242,7 +3315,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="85"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -3250,17 +3323,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -3268,6 +3330,17 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3341,7 +3414,7 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="82" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="54" t="s">
@@ -3369,7 +3442,7 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="83"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="52" t="s">
         <v>60</v>
       </c>
@@ -3391,7 +3464,7 @@
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="85" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="52" t="s">
@@ -3419,7 +3492,7 @@
       <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="83"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="52" t="s">
         <v>78</v>
       </c>
@@ -3433,7 +3506,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="87" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -3445,7 +3518,7 @@
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="96" t="s">
         <v>84</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -3463,11 +3536,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="85" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -3493,7 +3566,7 @@
       <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
       <c r="H9" s="3"/>
@@ -3545,7 +3618,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="90" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -3565,13 +3638,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="96" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
       <c r="H14" s="9" t="s">
@@ -3591,11 +3664,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="96"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="87" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -3617,7 +3690,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="87"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
       <c r="H16" s="9" t="s">
@@ -3635,13 +3708,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="87" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -3659,11 +3732,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -4003,11 +4076,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -4015,6 +4083,11 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="119">
   <si>
     <t>Semaine</t>
   </si>
@@ -677,6 +677,10 @@
   <si>
     <t>TD sur feuille 
 Banque PT 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lundi 7h30 - 9h30
+Exercices d'entrainement à la Banque PT. </t>
   </si>
 </sst>
 </file>
@@ -1343,6 +1347,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1355,12 +1362,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1369,9 +1376,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1680,8 +1684,8 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2175,7 +2179,9 @@
         <v>33</v>
       </c>
       <c r="B45" s="83"/>
-      <c r="C45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="21"/>
@@ -2937,7 +2943,7 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="94" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -2951,7 +2957,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="94"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
@@ -3037,7 +3043,7 @@
       <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="91" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="8"/>
@@ -3051,7 +3057,7 @@
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="10"/>
       <c r="F24" s="21"/>
     </row>
@@ -3065,7 +3071,7 @@
       <c r="C25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="92" t="s">
         <v>95</v>
       </c>
       <c r="E25" s="18" t="s">
@@ -3081,7 +3087,7 @@
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="18" t="s">
         <v>72</v>
       </c>
@@ -3097,7 +3103,7 @@
       <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="92" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="18" t="s">
@@ -3113,7 +3119,7 @@
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="92"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="12"/>
       <c r="F28" s="23"/>
     </row>
@@ -3163,7 +3169,7 @@
       <c r="C34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="92" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
@@ -3177,7 +3183,7 @@
       <c r="C35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="91"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="10"/>
       <c r="F35" s="21"/>
     </row>
@@ -3187,7 +3193,7 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="91" t="s">
+      <c r="D36" s="92" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
@@ -3199,7 +3205,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="92"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="12"/>
       <c r="F37" s="23"/>
     </row>
@@ -3323,6 +3329,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -3330,17 +3347,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3550,7 +3556,7 @@
       <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="97"/>
+      <c r="I8" s="98"/>
       <c r="J8" s="53" t="s">
         <v>61</v>
       </c>
@@ -3576,13 +3582,13 @@
       <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -3664,7 +3670,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
@@ -3756,13 +3762,13 @@
       <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="98" t="s">
+      <c r="I19" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
     </row>
     <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
@@ -4076,6 +4082,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -4083,11 +4094,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="124">
   <si>
     <t>Semaine</t>
   </si>
@@ -665,9 +665,6 @@
 Recherche de l'enveloppe convexe d'un nuage de points </t>
   </si>
   <si>
-    <t>CONCOURS BLANC - Epreuve d'apres le sujet CCP PC - 2015</t>
-  </si>
-  <si>
     <t>Révisions algorithmique
 Sujet Mines Ponts 2015</t>
   </si>
@@ -679,8 +676,34 @@
 Banque PT 2016</t>
   </si>
   <si>
+    <t>Mercredi ou Jeudi - Eleves en autonomie.
+2h de préparation d'exercices.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lundi 7h30 - 9h30
+Vendredi matin - Préparation à l'épreuve math-info.
 Exercices d'entrainement à la Banque PT. </t>
+  </si>
+  <si>
+    <t>Lundi 7h30 - 9h30
+Vendredi matin - Préparation à l'épreuve math-info.
+Exercices d'entrainement à la Banque PT.</t>
+  </si>
+  <si>
+    <t>CONCOURS BLANC - Epreuve d'apres le sujet CCP PC - 2015
+Transfert thermique dans un mur en régime transitoire</t>
+  </si>
+  <si>
+    <t>Découverte du traitement du signal. 
+Filtrage numérique.</t>
+  </si>
+  <si>
+    <t>TD de révision : 
+TD méthodes de résolution numérique des équations différentielles</t>
+  </si>
+  <si>
+    <t>TD Calcul numérique
+Traitement des données d’un accéléromètre</t>
   </si>
 </sst>
 </file>
@@ -691,7 +714,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +745,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -743,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1071,11 +1102,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1347,35 +1458,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,9 +1824,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1965,7 +2106,7 @@
         <v>107</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="21"/>
@@ -1980,9 +2121,7 @@
       <c r="C25" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>70</v>
-      </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="39"/>
       <c r="F25" s="21"/>
     </row>
@@ -2023,7 +2162,7 @@
         <v>111</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="23"/>
@@ -2047,7 +2186,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -2072,7 +2211,7 @@
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="10"/>
@@ -2084,7 +2223,7 @@
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="10"/>
@@ -2096,10 +2235,10 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="21"/>
@@ -2109,14 +2248,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="29"/>
-      <c r="C37" s="40"/>
+      <c r="C37" s="40" t="s">
+        <v>121</v>
+      </c>
       <c r="D37" s="45" t="s">
         <v>71</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>28</v>
@@ -2130,37 +2271,37 @@
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="103"/>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="26"/>
-    </row>
-    <row r="43" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="106"/>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="21"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="109"/>
     </row>
     <row r="44" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
@@ -2174,7 +2315,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
@@ -2182,17 +2323,23 @@
       <c r="C45" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="110" t="s">
+        <v>117</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="83"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="C46" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="E46" s="10"/>
       <c r="F46" s="21"/>
     </row>
@@ -2239,7 +2386,6 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B50"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
@@ -2250,9 +2396,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:F43"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2943,7 +3091,7 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="93" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -2957,7 +3105,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="95"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
@@ -3043,7 +3191,7 @@
       <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="95" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="8"/>
@@ -3057,7 +3205,7 @@
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="92"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="10"/>
       <c r="F24" s="21"/>
     </row>
@@ -3071,7 +3219,7 @@
       <c r="C25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="91" t="s">
         <v>95</v>
       </c>
       <c r="E25" s="18" t="s">
@@ -3087,7 +3235,7 @@
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="92"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="18" t="s">
         <v>72</v>
       </c>
@@ -3103,7 +3251,7 @@
       <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="91" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="18" t="s">
@@ -3119,7 +3267,7 @@
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="12"/>
       <c r="F28" s="23"/>
     </row>
@@ -3169,7 +3317,7 @@
       <c r="C34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="91" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
@@ -3183,7 +3331,7 @@
       <c r="C35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="92"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="10"/>
       <c r="F35" s="21"/>
     </row>
@@ -3193,7 +3341,7 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="91" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
@@ -3205,7 +3353,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="93"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="12"/>
       <c r="F37" s="23"/>
     </row>
@@ -3329,17 +3477,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -3347,6 +3484,17 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3556,7 +3704,7 @@
       <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="98"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="53" t="s">
         <v>61</v>
       </c>
@@ -3582,13 +3730,13 @@
       <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -3670,7 +3818,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
@@ -3762,13 +3910,13 @@
       <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="99" t="s">
+      <c r="I19" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="99"/>
     </row>
     <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
@@ -4082,11 +4230,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -4094,6 +4237,11 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
